--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -2941,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W287"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F98" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2957,6 +2957,7 @@
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -7853,29 +7854,29 @@
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="3">
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3">
         <v>42337</v>
       </c>
-      <c r="K113" s="3">
+      <c r="M113" s="3">
         <v>42314</v>
       </c>
-      <c r="L113" s="2">
+      <c r="N113" s="2">
         <v>23</v>
       </c>
-      <c r="M113" s="4" t="s">
+      <c r="O113" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
       <c r="P113" s="1"/>
-      <c r="Q113" s="1">
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1">
         <v>189</v>
       </c>
-      <c r="R113" s="1">
+      <c r="T113" s="1">
         <v>4</v>
       </c>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
@@ -15076,120 +15077,119 @@
     <hyperlink ref="O110" r:id="rId110"/>
     <hyperlink ref="O111" r:id="rId111"/>
     <hyperlink ref="O112" r:id="rId112"/>
-    <hyperlink ref="M113" r:id="rId113"/>
-    <hyperlink ref="O114" r:id="rId114"/>
-    <hyperlink ref="O115" r:id="rId115"/>
-    <hyperlink ref="O116" r:id="rId116"/>
-    <hyperlink ref="O117" r:id="rId117"/>
-    <hyperlink ref="O118" r:id="rId118"/>
-    <hyperlink ref="O119" r:id="rId119"/>
-    <hyperlink ref="O120" r:id="rId120"/>
-    <hyperlink ref="O121" r:id="rId121"/>
-    <hyperlink ref="O122" r:id="rId122"/>
-    <hyperlink ref="O123" r:id="rId123"/>
-    <hyperlink ref="O124" r:id="rId124"/>
-    <hyperlink ref="O125" r:id="rId125"/>
-    <hyperlink ref="O126" r:id="rId126"/>
-    <hyperlink ref="O127" r:id="rId127"/>
-    <hyperlink ref="O128" r:id="rId128"/>
-    <hyperlink ref="O129" r:id="rId129"/>
-    <hyperlink ref="O130" r:id="rId130"/>
-    <hyperlink ref="O131" r:id="rId131"/>
-    <hyperlink ref="O132" r:id="rId132"/>
-    <hyperlink ref="O133" r:id="rId133"/>
-    <hyperlink ref="O134" r:id="rId134"/>
-    <hyperlink ref="O135" r:id="rId135"/>
-    <hyperlink ref="O136" r:id="rId136"/>
-    <hyperlink ref="O137" r:id="rId137"/>
-    <hyperlink ref="O138" r:id="rId138"/>
-    <hyperlink ref="O139" r:id="rId139"/>
-    <hyperlink ref="O140" r:id="rId140"/>
-    <hyperlink ref="O141" r:id="rId141"/>
-    <hyperlink ref="O142" r:id="rId142"/>
-    <hyperlink ref="O143" r:id="rId143"/>
-    <hyperlink ref="O144" r:id="rId144"/>
-    <hyperlink ref="O145" r:id="rId145"/>
-    <hyperlink ref="O146" r:id="rId146"/>
-    <hyperlink ref="O147" r:id="rId147"/>
-    <hyperlink ref="O148" r:id="rId148"/>
-    <hyperlink ref="O149" r:id="rId149"/>
-    <hyperlink ref="O150" r:id="rId150"/>
-    <hyperlink ref="O151" r:id="rId151"/>
-    <hyperlink ref="O152" r:id="rId152"/>
-    <hyperlink ref="O153" r:id="rId153"/>
-    <hyperlink ref="O154" r:id="rId154"/>
-    <hyperlink ref="O155" r:id="rId155"/>
-    <hyperlink ref="O156" r:id="rId156"/>
-    <hyperlink ref="O157" r:id="rId157"/>
-    <hyperlink ref="O158" r:id="rId158"/>
-    <hyperlink ref="O159" r:id="rId159"/>
-    <hyperlink ref="O160" r:id="rId160"/>
-    <hyperlink ref="O161" r:id="rId161"/>
-    <hyperlink ref="O162" r:id="rId162"/>
-    <hyperlink ref="O163" r:id="rId163"/>
-    <hyperlink ref="O164" r:id="rId164"/>
-    <hyperlink ref="O165" r:id="rId165"/>
-    <hyperlink ref="O166" r:id="rId166"/>
-    <hyperlink ref="O167" r:id="rId167"/>
-    <hyperlink ref="O168" r:id="rId168"/>
-    <hyperlink ref="O169" r:id="rId169"/>
-    <hyperlink ref="O170" r:id="rId170"/>
-    <hyperlink ref="O171" r:id="rId171"/>
-    <hyperlink ref="O172" r:id="rId172"/>
-    <hyperlink ref="O173" r:id="rId173"/>
-    <hyperlink ref="O174" r:id="rId174"/>
-    <hyperlink ref="O177" r:id="rId175"/>
-    <hyperlink ref="O178" r:id="rId176"/>
-    <hyperlink ref="O179" r:id="rId177"/>
-    <hyperlink ref="O180" r:id="rId178"/>
-    <hyperlink ref="O182" r:id="rId179"/>
-    <hyperlink ref="O183" r:id="rId180"/>
-    <hyperlink ref="O184" r:id="rId181"/>
-    <hyperlink ref="O185" r:id="rId182"/>
-    <hyperlink ref="O187" r:id="rId183"/>
-    <hyperlink ref="O188" r:id="rId184"/>
-    <hyperlink ref="O189" r:id="rId185"/>
-    <hyperlink ref="O190" r:id="rId186"/>
-    <hyperlink ref="O195" r:id="rId187"/>
-    <hyperlink ref="O197" r:id="rId188"/>
-    <hyperlink ref="O198" r:id="rId189"/>
-    <hyperlink ref="O199" r:id="rId190"/>
-    <hyperlink ref="O200" r:id="rId191"/>
-    <hyperlink ref="O201" r:id="rId192"/>
-    <hyperlink ref="O202" r:id="rId193"/>
-    <hyperlink ref="O203" r:id="rId194"/>
-    <hyperlink ref="O204" r:id="rId195"/>
-    <hyperlink ref="O205" r:id="rId196"/>
-    <hyperlink ref="O206" r:id="rId197"/>
-    <hyperlink ref="O207" r:id="rId198"/>
-    <hyperlink ref="O208" r:id="rId199"/>
-    <hyperlink ref="O209" r:id="rId200"/>
-    <hyperlink ref="O210" r:id="rId201"/>
-    <hyperlink ref="O211" r:id="rId202"/>
-    <hyperlink ref="O212" r:id="rId203"/>
-    <hyperlink ref="O214" r:id="rId204"/>
-    <hyperlink ref="O215" r:id="rId205"/>
-    <hyperlink ref="O216" r:id="rId206"/>
-    <hyperlink ref="O218" r:id="rId207"/>
-    <hyperlink ref="O219" r:id="rId208"/>
-    <hyperlink ref="O220" r:id="rId209"/>
-    <hyperlink ref="O221" r:id="rId210"/>
-    <hyperlink ref="O222" r:id="rId211"/>
-    <hyperlink ref="O228" r:id="rId212"/>
-    <hyperlink ref="O252" r:id="rId213"/>
-    <hyperlink ref="O259" r:id="rId214"/>
-    <hyperlink ref="O261" r:id="rId215"/>
-    <hyperlink ref="O263" r:id="rId216"/>
-    <hyperlink ref="O266" r:id="rId217"/>
-    <hyperlink ref="O267" r:id="rId218"/>
-    <hyperlink ref="O268" r:id="rId219"/>
-    <hyperlink ref="O275" r:id="rId220"/>
-    <hyperlink ref="O277" r:id="rId221"/>
-    <hyperlink ref="O278" r:id="rId222"/>
-    <hyperlink ref="O280" r:id="rId223"/>
-    <hyperlink ref="O283" r:id="rId224"/>
-    <hyperlink ref="O284" r:id="rId225"/>
-    <hyperlink ref="O286" r:id="rId226"/>
+    <hyperlink ref="O114" r:id="rId113"/>
+    <hyperlink ref="O115" r:id="rId114"/>
+    <hyperlink ref="O116" r:id="rId115"/>
+    <hyperlink ref="O117" r:id="rId116"/>
+    <hyperlink ref="O118" r:id="rId117"/>
+    <hyperlink ref="O119" r:id="rId118"/>
+    <hyperlink ref="O120" r:id="rId119"/>
+    <hyperlink ref="O121" r:id="rId120"/>
+    <hyperlink ref="O122" r:id="rId121"/>
+    <hyperlink ref="O123" r:id="rId122"/>
+    <hyperlink ref="O124" r:id="rId123"/>
+    <hyperlink ref="O125" r:id="rId124"/>
+    <hyperlink ref="O126" r:id="rId125"/>
+    <hyperlink ref="O127" r:id="rId126"/>
+    <hyperlink ref="O128" r:id="rId127"/>
+    <hyperlink ref="O129" r:id="rId128"/>
+    <hyperlink ref="O130" r:id="rId129"/>
+    <hyperlink ref="O131" r:id="rId130"/>
+    <hyperlink ref="O132" r:id="rId131"/>
+    <hyperlink ref="O133" r:id="rId132"/>
+    <hyperlink ref="O134" r:id="rId133"/>
+    <hyperlink ref="O135" r:id="rId134"/>
+    <hyperlink ref="O136" r:id="rId135"/>
+    <hyperlink ref="O137" r:id="rId136"/>
+    <hyperlink ref="O138" r:id="rId137"/>
+    <hyperlink ref="O139" r:id="rId138"/>
+    <hyperlink ref="O140" r:id="rId139"/>
+    <hyperlink ref="O141" r:id="rId140"/>
+    <hyperlink ref="O142" r:id="rId141"/>
+    <hyperlink ref="O143" r:id="rId142"/>
+    <hyperlink ref="O144" r:id="rId143"/>
+    <hyperlink ref="O145" r:id="rId144"/>
+    <hyperlink ref="O146" r:id="rId145"/>
+    <hyperlink ref="O147" r:id="rId146"/>
+    <hyperlink ref="O148" r:id="rId147"/>
+    <hyperlink ref="O149" r:id="rId148"/>
+    <hyperlink ref="O150" r:id="rId149"/>
+    <hyperlink ref="O151" r:id="rId150"/>
+    <hyperlink ref="O152" r:id="rId151"/>
+    <hyperlink ref="O153" r:id="rId152"/>
+    <hyperlink ref="O154" r:id="rId153"/>
+    <hyperlink ref="O155" r:id="rId154"/>
+    <hyperlink ref="O156" r:id="rId155"/>
+    <hyperlink ref="O157" r:id="rId156"/>
+    <hyperlink ref="O158" r:id="rId157"/>
+    <hyperlink ref="O159" r:id="rId158"/>
+    <hyperlink ref="O160" r:id="rId159"/>
+    <hyperlink ref="O161" r:id="rId160"/>
+    <hyperlink ref="O162" r:id="rId161"/>
+    <hyperlink ref="O163" r:id="rId162"/>
+    <hyperlink ref="O164" r:id="rId163"/>
+    <hyperlink ref="O165" r:id="rId164"/>
+    <hyperlink ref="O166" r:id="rId165"/>
+    <hyperlink ref="O167" r:id="rId166"/>
+    <hyperlink ref="O168" r:id="rId167"/>
+    <hyperlink ref="O169" r:id="rId168"/>
+    <hyperlink ref="O170" r:id="rId169"/>
+    <hyperlink ref="O171" r:id="rId170"/>
+    <hyperlink ref="O172" r:id="rId171"/>
+    <hyperlink ref="O173" r:id="rId172"/>
+    <hyperlink ref="O174" r:id="rId173"/>
+    <hyperlink ref="O177" r:id="rId174"/>
+    <hyperlink ref="O178" r:id="rId175"/>
+    <hyperlink ref="O179" r:id="rId176"/>
+    <hyperlink ref="O180" r:id="rId177"/>
+    <hyperlink ref="O182" r:id="rId178"/>
+    <hyperlink ref="O183" r:id="rId179"/>
+    <hyperlink ref="O184" r:id="rId180"/>
+    <hyperlink ref="O185" r:id="rId181"/>
+    <hyperlink ref="O187" r:id="rId182"/>
+    <hyperlink ref="O188" r:id="rId183"/>
+    <hyperlink ref="O189" r:id="rId184"/>
+    <hyperlink ref="O190" r:id="rId185"/>
+    <hyperlink ref="O195" r:id="rId186"/>
+    <hyperlink ref="O197" r:id="rId187"/>
+    <hyperlink ref="O198" r:id="rId188"/>
+    <hyperlink ref="O199" r:id="rId189"/>
+    <hyperlink ref="O200" r:id="rId190"/>
+    <hyperlink ref="O201" r:id="rId191"/>
+    <hyperlink ref="O202" r:id="rId192"/>
+    <hyperlink ref="O203" r:id="rId193"/>
+    <hyperlink ref="O204" r:id="rId194"/>
+    <hyperlink ref="O205" r:id="rId195"/>
+    <hyperlink ref="O206" r:id="rId196"/>
+    <hyperlink ref="O207" r:id="rId197"/>
+    <hyperlink ref="O208" r:id="rId198"/>
+    <hyperlink ref="O209" r:id="rId199"/>
+    <hyperlink ref="O210" r:id="rId200"/>
+    <hyperlink ref="O211" r:id="rId201"/>
+    <hyperlink ref="O212" r:id="rId202"/>
+    <hyperlink ref="O214" r:id="rId203"/>
+    <hyperlink ref="O215" r:id="rId204"/>
+    <hyperlink ref="O216" r:id="rId205"/>
+    <hyperlink ref="O218" r:id="rId206"/>
+    <hyperlink ref="O219" r:id="rId207"/>
+    <hyperlink ref="O220" r:id="rId208"/>
+    <hyperlink ref="O221" r:id="rId209"/>
+    <hyperlink ref="O222" r:id="rId210"/>
+    <hyperlink ref="O228" r:id="rId211"/>
+    <hyperlink ref="O252" r:id="rId212"/>
+    <hyperlink ref="O259" r:id="rId213"/>
+    <hyperlink ref="O261" r:id="rId214"/>
+    <hyperlink ref="O263" r:id="rId215"/>
+    <hyperlink ref="O266" r:id="rId216"/>
+    <hyperlink ref="O267" r:id="rId217"/>
+    <hyperlink ref="O268" r:id="rId218"/>
+    <hyperlink ref="O275" r:id="rId219"/>
+    <hyperlink ref="O277" r:id="rId220"/>
+    <hyperlink ref="O278" r:id="rId221"/>
+    <hyperlink ref="O280" r:id="rId222"/>
+    <hyperlink ref="O283" r:id="rId223"/>
+    <hyperlink ref="O284" r:id="rId224"/>
+    <hyperlink ref="O286" r:id="rId225"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -2941,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W287"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F98" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287:XFD287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14965,232 +14965,233 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O1" r:id="rId1"/>
-    <hyperlink ref="O2" r:id="rId2"/>
-    <hyperlink ref="O3" r:id="rId3"/>
-    <hyperlink ref="O4" r:id="rId4"/>
-    <hyperlink ref="O5" r:id="rId5"/>
-    <hyperlink ref="O6" r:id="rId6"/>
-    <hyperlink ref="O7" r:id="rId7"/>
-    <hyperlink ref="O8" r:id="rId8"/>
-    <hyperlink ref="O9" r:id="rId9"/>
-    <hyperlink ref="O10" r:id="rId10"/>
-    <hyperlink ref="O11" r:id="rId11"/>
-    <hyperlink ref="O12" r:id="rId12"/>
-    <hyperlink ref="O13" r:id="rId13"/>
-    <hyperlink ref="O14" r:id="rId14"/>
-    <hyperlink ref="O15" r:id="rId15"/>
-    <hyperlink ref="O16" r:id="rId16"/>
-    <hyperlink ref="O17" r:id="rId17"/>
-    <hyperlink ref="O18" r:id="rId18"/>
-    <hyperlink ref="O19" r:id="rId19"/>
-    <hyperlink ref="O20" r:id="rId20"/>
-    <hyperlink ref="O21" r:id="rId21"/>
-    <hyperlink ref="O22" r:id="rId22"/>
-    <hyperlink ref="O23" r:id="rId23"/>
-    <hyperlink ref="O24" r:id="rId24"/>
-    <hyperlink ref="O25" r:id="rId25"/>
-    <hyperlink ref="O26" r:id="rId26"/>
-    <hyperlink ref="O27" r:id="rId27"/>
-    <hyperlink ref="O28" r:id="rId28"/>
-    <hyperlink ref="O29" r:id="rId29"/>
-    <hyperlink ref="O30" r:id="rId30"/>
-    <hyperlink ref="O31" r:id="rId31"/>
-    <hyperlink ref="O32" r:id="rId32"/>
-    <hyperlink ref="O33" r:id="rId33"/>
-    <hyperlink ref="O34" r:id="rId34"/>
-    <hyperlink ref="O35" r:id="rId35"/>
-    <hyperlink ref="O36" r:id="rId36"/>
-    <hyperlink ref="O37" r:id="rId37"/>
-    <hyperlink ref="O38" r:id="rId38"/>
-    <hyperlink ref="O39" r:id="rId39"/>
-    <hyperlink ref="O40" r:id="rId40"/>
-    <hyperlink ref="O41" r:id="rId41"/>
-    <hyperlink ref="O42" r:id="rId42"/>
-    <hyperlink ref="O43" r:id="rId43"/>
-    <hyperlink ref="O44" r:id="rId44"/>
-    <hyperlink ref="O45" r:id="rId45"/>
-    <hyperlink ref="O46" r:id="rId46"/>
-    <hyperlink ref="O47" r:id="rId47"/>
-    <hyperlink ref="O48" r:id="rId48"/>
-    <hyperlink ref="O49" r:id="rId49"/>
-    <hyperlink ref="O50" r:id="rId50"/>
-    <hyperlink ref="O51" r:id="rId51"/>
-    <hyperlink ref="O52" r:id="rId52"/>
-    <hyperlink ref="O53" r:id="rId53"/>
-    <hyperlink ref="O54" r:id="rId54"/>
-    <hyperlink ref="O55" r:id="rId55"/>
-    <hyperlink ref="O56" r:id="rId56"/>
-    <hyperlink ref="O57" r:id="rId57"/>
-    <hyperlink ref="O58" r:id="rId58"/>
-    <hyperlink ref="O59" r:id="rId59"/>
-    <hyperlink ref="O60" r:id="rId60"/>
-    <hyperlink ref="O61" r:id="rId61"/>
-    <hyperlink ref="O62" r:id="rId62"/>
-    <hyperlink ref="O63" r:id="rId63"/>
-    <hyperlink ref="O64" r:id="rId64"/>
-    <hyperlink ref="O65" r:id="rId65"/>
-    <hyperlink ref="O66" r:id="rId66"/>
-    <hyperlink ref="O67" r:id="rId67"/>
-    <hyperlink ref="O68" r:id="rId68"/>
-    <hyperlink ref="O69" r:id="rId69"/>
-    <hyperlink ref="O70" r:id="rId70"/>
-    <hyperlink ref="O71" r:id="rId71"/>
-    <hyperlink ref="O72" r:id="rId72"/>
-    <hyperlink ref="O73" r:id="rId73"/>
-    <hyperlink ref="O74" r:id="rId74"/>
-    <hyperlink ref="O75" r:id="rId75"/>
-    <hyperlink ref="O76" r:id="rId76"/>
-    <hyperlink ref="O77" r:id="rId77"/>
-    <hyperlink ref="O78" r:id="rId78"/>
-    <hyperlink ref="O79" r:id="rId79"/>
-    <hyperlink ref="O80" r:id="rId80"/>
-    <hyperlink ref="O81" r:id="rId81"/>
-    <hyperlink ref="O82" r:id="rId82"/>
-    <hyperlink ref="O83" r:id="rId83"/>
-    <hyperlink ref="O84" r:id="rId84"/>
-    <hyperlink ref="O85" r:id="rId85"/>
-    <hyperlink ref="O86" r:id="rId86"/>
-    <hyperlink ref="O87" r:id="rId87"/>
-    <hyperlink ref="O88" r:id="rId88"/>
-    <hyperlink ref="O89" r:id="rId89"/>
-    <hyperlink ref="O90" r:id="rId90"/>
-    <hyperlink ref="O91" r:id="rId91"/>
-    <hyperlink ref="O92" r:id="rId92"/>
-    <hyperlink ref="O93" r:id="rId93"/>
-    <hyperlink ref="O94" r:id="rId94"/>
-    <hyperlink ref="O95" r:id="rId95"/>
-    <hyperlink ref="O96" r:id="rId96"/>
-    <hyperlink ref="O97" r:id="rId97"/>
-    <hyperlink ref="O98" r:id="rId98"/>
-    <hyperlink ref="O99" r:id="rId99"/>
-    <hyperlink ref="O100" r:id="rId100"/>
-    <hyperlink ref="O101" r:id="rId101"/>
-    <hyperlink ref="O102" r:id="rId102"/>
-    <hyperlink ref="O103" r:id="rId103"/>
-    <hyperlink ref="O104" r:id="rId104"/>
-    <hyperlink ref="O105" r:id="rId105"/>
-    <hyperlink ref="O106" r:id="rId106"/>
-    <hyperlink ref="O107" r:id="rId107"/>
-    <hyperlink ref="O108" r:id="rId108"/>
-    <hyperlink ref="O109" r:id="rId109"/>
-    <hyperlink ref="O110" r:id="rId110"/>
-    <hyperlink ref="O111" r:id="rId111"/>
-    <hyperlink ref="O112" r:id="rId112"/>
+    <hyperlink ref="O286" r:id="rId1"/>
+    <hyperlink ref="O284" r:id="rId2"/>
+    <hyperlink ref="O283" r:id="rId3"/>
+    <hyperlink ref="O280" r:id="rId4"/>
+    <hyperlink ref="O278" r:id="rId5"/>
+    <hyperlink ref="O277" r:id="rId6"/>
+    <hyperlink ref="O275" r:id="rId7"/>
+    <hyperlink ref="O268" r:id="rId8"/>
+    <hyperlink ref="O267" r:id="rId9"/>
+    <hyperlink ref="O266" r:id="rId10"/>
+    <hyperlink ref="O263" r:id="rId11"/>
+    <hyperlink ref="O261" r:id="rId12"/>
+    <hyperlink ref="O259" r:id="rId13"/>
+    <hyperlink ref="O252" r:id="rId14"/>
+    <hyperlink ref="O228" r:id="rId15"/>
+    <hyperlink ref="O222" r:id="rId16"/>
+    <hyperlink ref="O221" r:id="rId17"/>
+    <hyperlink ref="O220" r:id="rId18"/>
+    <hyperlink ref="O219" r:id="rId19"/>
+    <hyperlink ref="O218" r:id="rId20"/>
+    <hyperlink ref="O216" r:id="rId21"/>
+    <hyperlink ref="O215" r:id="rId22"/>
+    <hyperlink ref="O214" r:id="rId23"/>
+    <hyperlink ref="O212" r:id="rId24"/>
+    <hyperlink ref="O211" r:id="rId25"/>
+    <hyperlink ref="O210" r:id="rId26"/>
+    <hyperlink ref="O209" r:id="rId27"/>
+    <hyperlink ref="O208" r:id="rId28"/>
+    <hyperlink ref="O207" r:id="rId29"/>
+    <hyperlink ref="O206" r:id="rId30"/>
+    <hyperlink ref="O205" r:id="rId31"/>
+    <hyperlink ref="O204" r:id="rId32"/>
+    <hyperlink ref="O203" r:id="rId33"/>
+    <hyperlink ref="O202" r:id="rId34"/>
+    <hyperlink ref="O201" r:id="rId35"/>
+    <hyperlink ref="O200" r:id="rId36"/>
+    <hyperlink ref="O199" r:id="rId37"/>
+    <hyperlink ref="O198" r:id="rId38"/>
+    <hyperlink ref="O197" r:id="rId39"/>
+    <hyperlink ref="O195" r:id="rId40"/>
+    <hyperlink ref="O190" r:id="rId41"/>
+    <hyperlink ref="O189" r:id="rId42"/>
+    <hyperlink ref="O188" r:id="rId43"/>
+    <hyperlink ref="O187" r:id="rId44"/>
+    <hyperlink ref="O185" r:id="rId45"/>
+    <hyperlink ref="O184" r:id="rId46"/>
+    <hyperlink ref="O183" r:id="rId47"/>
+    <hyperlink ref="O182" r:id="rId48"/>
+    <hyperlink ref="O180" r:id="rId49"/>
+    <hyperlink ref="O179" r:id="rId50"/>
+    <hyperlink ref="O178" r:id="rId51"/>
+    <hyperlink ref="O177" r:id="rId52"/>
+    <hyperlink ref="O174" r:id="rId53"/>
+    <hyperlink ref="O173" r:id="rId54"/>
+    <hyperlink ref="O172" r:id="rId55"/>
+    <hyperlink ref="O171" r:id="rId56"/>
+    <hyperlink ref="O170" r:id="rId57"/>
+    <hyperlink ref="O169" r:id="rId58"/>
+    <hyperlink ref="O168" r:id="rId59"/>
+    <hyperlink ref="O167" r:id="rId60"/>
+    <hyperlink ref="O166" r:id="rId61"/>
+    <hyperlink ref="O165" r:id="rId62"/>
+    <hyperlink ref="O164" r:id="rId63"/>
+    <hyperlink ref="O163" r:id="rId64"/>
+    <hyperlink ref="O162" r:id="rId65"/>
+    <hyperlink ref="O161" r:id="rId66"/>
+    <hyperlink ref="O160" r:id="rId67"/>
+    <hyperlink ref="O159" r:id="rId68"/>
+    <hyperlink ref="O158" r:id="rId69"/>
+    <hyperlink ref="O157" r:id="rId70"/>
+    <hyperlink ref="O156" r:id="rId71"/>
+    <hyperlink ref="O155" r:id="rId72"/>
+    <hyperlink ref="O154" r:id="rId73"/>
+    <hyperlink ref="O153" r:id="rId74"/>
+    <hyperlink ref="O152" r:id="rId75"/>
+    <hyperlink ref="O151" r:id="rId76"/>
+    <hyperlink ref="O150" r:id="rId77"/>
+    <hyperlink ref="O149" r:id="rId78"/>
+    <hyperlink ref="O148" r:id="rId79"/>
+    <hyperlink ref="O147" r:id="rId80"/>
+    <hyperlink ref="O146" r:id="rId81"/>
+    <hyperlink ref="O145" r:id="rId82"/>
+    <hyperlink ref="O144" r:id="rId83"/>
+    <hyperlink ref="O143" r:id="rId84"/>
+    <hyperlink ref="O142" r:id="rId85"/>
+    <hyperlink ref="O141" r:id="rId86"/>
+    <hyperlink ref="O140" r:id="rId87"/>
+    <hyperlink ref="O139" r:id="rId88"/>
+    <hyperlink ref="O138" r:id="rId89"/>
+    <hyperlink ref="O137" r:id="rId90"/>
+    <hyperlink ref="O136" r:id="rId91"/>
+    <hyperlink ref="O135" r:id="rId92"/>
+    <hyperlink ref="O134" r:id="rId93"/>
+    <hyperlink ref="O133" r:id="rId94"/>
+    <hyperlink ref="O132" r:id="rId95"/>
+    <hyperlink ref="O131" r:id="rId96"/>
+    <hyperlink ref="O130" r:id="rId97"/>
+    <hyperlink ref="O129" r:id="rId98"/>
+    <hyperlink ref="O128" r:id="rId99"/>
+    <hyperlink ref="O127" r:id="rId100"/>
+    <hyperlink ref="O126" r:id="rId101"/>
+    <hyperlink ref="O125" r:id="rId102"/>
+    <hyperlink ref="O124" r:id="rId103"/>
+    <hyperlink ref="O123" r:id="rId104"/>
+    <hyperlink ref="O122" r:id="rId105"/>
+    <hyperlink ref="O121" r:id="rId106"/>
+    <hyperlink ref="O120" r:id="rId107"/>
+    <hyperlink ref="O119" r:id="rId108"/>
+    <hyperlink ref="O118" r:id="rId109"/>
+    <hyperlink ref="O117" r:id="rId110"/>
+    <hyperlink ref="O116" r:id="rId111"/>
+    <hyperlink ref="O115" r:id="rId112"/>
     <hyperlink ref="O114" r:id="rId113"/>
-    <hyperlink ref="O115" r:id="rId114"/>
-    <hyperlink ref="O116" r:id="rId115"/>
-    <hyperlink ref="O117" r:id="rId116"/>
-    <hyperlink ref="O118" r:id="rId117"/>
-    <hyperlink ref="O119" r:id="rId118"/>
-    <hyperlink ref="O120" r:id="rId119"/>
-    <hyperlink ref="O121" r:id="rId120"/>
-    <hyperlink ref="O122" r:id="rId121"/>
-    <hyperlink ref="O123" r:id="rId122"/>
-    <hyperlink ref="O124" r:id="rId123"/>
-    <hyperlink ref="O125" r:id="rId124"/>
-    <hyperlink ref="O126" r:id="rId125"/>
-    <hyperlink ref="O127" r:id="rId126"/>
-    <hyperlink ref="O128" r:id="rId127"/>
-    <hyperlink ref="O129" r:id="rId128"/>
-    <hyperlink ref="O130" r:id="rId129"/>
-    <hyperlink ref="O131" r:id="rId130"/>
-    <hyperlink ref="O132" r:id="rId131"/>
-    <hyperlink ref="O133" r:id="rId132"/>
-    <hyperlink ref="O134" r:id="rId133"/>
-    <hyperlink ref="O135" r:id="rId134"/>
-    <hyperlink ref="O136" r:id="rId135"/>
-    <hyperlink ref="O137" r:id="rId136"/>
-    <hyperlink ref="O138" r:id="rId137"/>
-    <hyperlink ref="O139" r:id="rId138"/>
-    <hyperlink ref="O140" r:id="rId139"/>
-    <hyperlink ref="O141" r:id="rId140"/>
-    <hyperlink ref="O142" r:id="rId141"/>
-    <hyperlink ref="O143" r:id="rId142"/>
-    <hyperlink ref="O144" r:id="rId143"/>
-    <hyperlink ref="O145" r:id="rId144"/>
-    <hyperlink ref="O146" r:id="rId145"/>
-    <hyperlink ref="O147" r:id="rId146"/>
-    <hyperlink ref="O148" r:id="rId147"/>
-    <hyperlink ref="O149" r:id="rId148"/>
-    <hyperlink ref="O150" r:id="rId149"/>
-    <hyperlink ref="O151" r:id="rId150"/>
-    <hyperlink ref="O152" r:id="rId151"/>
-    <hyperlink ref="O153" r:id="rId152"/>
-    <hyperlink ref="O154" r:id="rId153"/>
-    <hyperlink ref="O155" r:id="rId154"/>
-    <hyperlink ref="O156" r:id="rId155"/>
-    <hyperlink ref="O157" r:id="rId156"/>
-    <hyperlink ref="O158" r:id="rId157"/>
-    <hyperlink ref="O159" r:id="rId158"/>
-    <hyperlink ref="O160" r:id="rId159"/>
-    <hyperlink ref="O161" r:id="rId160"/>
-    <hyperlink ref="O162" r:id="rId161"/>
-    <hyperlink ref="O163" r:id="rId162"/>
-    <hyperlink ref="O164" r:id="rId163"/>
-    <hyperlink ref="O165" r:id="rId164"/>
-    <hyperlink ref="O166" r:id="rId165"/>
-    <hyperlink ref="O167" r:id="rId166"/>
-    <hyperlink ref="O168" r:id="rId167"/>
-    <hyperlink ref="O169" r:id="rId168"/>
-    <hyperlink ref="O170" r:id="rId169"/>
-    <hyperlink ref="O171" r:id="rId170"/>
-    <hyperlink ref="O172" r:id="rId171"/>
-    <hyperlink ref="O173" r:id="rId172"/>
-    <hyperlink ref="O174" r:id="rId173"/>
-    <hyperlink ref="O177" r:id="rId174"/>
-    <hyperlink ref="O178" r:id="rId175"/>
-    <hyperlink ref="O179" r:id="rId176"/>
-    <hyperlink ref="O180" r:id="rId177"/>
-    <hyperlink ref="O182" r:id="rId178"/>
-    <hyperlink ref="O183" r:id="rId179"/>
-    <hyperlink ref="O184" r:id="rId180"/>
-    <hyperlink ref="O185" r:id="rId181"/>
-    <hyperlink ref="O187" r:id="rId182"/>
-    <hyperlink ref="O188" r:id="rId183"/>
-    <hyperlink ref="O189" r:id="rId184"/>
-    <hyperlink ref="O190" r:id="rId185"/>
-    <hyperlink ref="O195" r:id="rId186"/>
-    <hyperlink ref="O197" r:id="rId187"/>
-    <hyperlink ref="O198" r:id="rId188"/>
-    <hyperlink ref="O199" r:id="rId189"/>
-    <hyperlink ref="O200" r:id="rId190"/>
-    <hyperlink ref="O201" r:id="rId191"/>
-    <hyperlink ref="O202" r:id="rId192"/>
-    <hyperlink ref="O203" r:id="rId193"/>
-    <hyperlink ref="O204" r:id="rId194"/>
-    <hyperlink ref="O205" r:id="rId195"/>
-    <hyperlink ref="O206" r:id="rId196"/>
-    <hyperlink ref="O207" r:id="rId197"/>
-    <hyperlink ref="O208" r:id="rId198"/>
-    <hyperlink ref="O209" r:id="rId199"/>
-    <hyperlink ref="O210" r:id="rId200"/>
-    <hyperlink ref="O211" r:id="rId201"/>
-    <hyperlink ref="O212" r:id="rId202"/>
-    <hyperlink ref="O214" r:id="rId203"/>
-    <hyperlink ref="O215" r:id="rId204"/>
-    <hyperlink ref="O216" r:id="rId205"/>
-    <hyperlink ref="O218" r:id="rId206"/>
-    <hyperlink ref="O219" r:id="rId207"/>
-    <hyperlink ref="O220" r:id="rId208"/>
-    <hyperlink ref="O221" r:id="rId209"/>
-    <hyperlink ref="O222" r:id="rId210"/>
-    <hyperlink ref="O228" r:id="rId211"/>
-    <hyperlink ref="O252" r:id="rId212"/>
-    <hyperlink ref="O259" r:id="rId213"/>
-    <hyperlink ref="O261" r:id="rId214"/>
-    <hyperlink ref="O263" r:id="rId215"/>
-    <hyperlink ref="O266" r:id="rId216"/>
-    <hyperlink ref="O267" r:id="rId217"/>
-    <hyperlink ref="O268" r:id="rId218"/>
-    <hyperlink ref="O275" r:id="rId219"/>
-    <hyperlink ref="O277" r:id="rId220"/>
-    <hyperlink ref="O278" r:id="rId221"/>
-    <hyperlink ref="O280" r:id="rId222"/>
-    <hyperlink ref="O283" r:id="rId223"/>
-    <hyperlink ref="O284" r:id="rId224"/>
-    <hyperlink ref="O286" r:id="rId225"/>
+    <hyperlink ref="O112" r:id="rId114"/>
+    <hyperlink ref="O111" r:id="rId115"/>
+    <hyperlink ref="O110" r:id="rId116"/>
+    <hyperlink ref="O109" r:id="rId117"/>
+    <hyperlink ref="O108" r:id="rId118"/>
+    <hyperlink ref="O107" r:id="rId119"/>
+    <hyperlink ref="O106" r:id="rId120"/>
+    <hyperlink ref="O105" r:id="rId121"/>
+    <hyperlink ref="O104" r:id="rId122"/>
+    <hyperlink ref="O103" r:id="rId123"/>
+    <hyperlink ref="O102" r:id="rId124"/>
+    <hyperlink ref="O101" r:id="rId125"/>
+    <hyperlink ref="O100" r:id="rId126"/>
+    <hyperlink ref="O99" r:id="rId127"/>
+    <hyperlink ref="O98" r:id="rId128"/>
+    <hyperlink ref="O97" r:id="rId129"/>
+    <hyperlink ref="O96" r:id="rId130"/>
+    <hyperlink ref="O95" r:id="rId131"/>
+    <hyperlink ref="O94" r:id="rId132"/>
+    <hyperlink ref="O93" r:id="rId133"/>
+    <hyperlink ref="O92" r:id="rId134"/>
+    <hyperlink ref="O91" r:id="rId135"/>
+    <hyperlink ref="O90" r:id="rId136"/>
+    <hyperlink ref="O89" r:id="rId137"/>
+    <hyperlink ref="O88" r:id="rId138"/>
+    <hyperlink ref="O87" r:id="rId139"/>
+    <hyperlink ref="O86" r:id="rId140"/>
+    <hyperlink ref="O85" r:id="rId141"/>
+    <hyperlink ref="O84" r:id="rId142"/>
+    <hyperlink ref="O83" r:id="rId143"/>
+    <hyperlink ref="O82" r:id="rId144"/>
+    <hyperlink ref="O81" r:id="rId145"/>
+    <hyperlink ref="O80" r:id="rId146"/>
+    <hyperlink ref="O79" r:id="rId147"/>
+    <hyperlink ref="O78" r:id="rId148"/>
+    <hyperlink ref="O77" r:id="rId149"/>
+    <hyperlink ref="O76" r:id="rId150"/>
+    <hyperlink ref="O75" r:id="rId151"/>
+    <hyperlink ref="O74" r:id="rId152"/>
+    <hyperlink ref="O73" r:id="rId153"/>
+    <hyperlink ref="O72" r:id="rId154"/>
+    <hyperlink ref="O71" r:id="rId155"/>
+    <hyperlink ref="O70" r:id="rId156"/>
+    <hyperlink ref="O69" r:id="rId157"/>
+    <hyperlink ref="O68" r:id="rId158"/>
+    <hyperlink ref="O67" r:id="rId159"/>
+    <hyperlink ref="O66" r:id="rId160"/>
+    <hyperlink ref="O65" r:id="rId161"/>
+    <hyperlink ref="O64" r:id="rId162"/>
+    <hyperlink ref="O63" r:id="rId163"/>
+    <hyperlink ref="O62" r:id="rId164"/>
+    <hyperlink ref="O61" r:id="rId165"/>
+    <hyperlink ref="O60" r:id="rId166"/>
+    <hyperlink ref="O59" r:id="rId167"/>
+    <hyperlink ref="O58" r:id="rId168"/>
+    <hyperlink ref="O57" r:id="rId169"/>
+    <hyperlink ref="O56" r:id="rId170"/>
+    <hyperlink ref="O55" r:id="rId171"/>
+    <hyperlink ref="O54" r:id="rId172"/>
+    <hyperlink ref="O53" r:id="rId173"/>
+    <hyperlink ref="O52" r:id="rId174"/>
+    <hyperlink ref="O51" r:id="rId175"/>
+    <hyperlink ref="O50" r:id="rId176"/>
+    <hyperlink ref="O49" r:id="rId177"/>
+    <hyperlink ref="O48" r:id="rId178"/>
+    <hyperlink ref="O47" r:id="rId179"/>
+    <hyperlink ref="O46" r:id="rId180"/>
+    <hyperlink ref="O45" r:id="rId181"/>
+    <hyperlink ref="O44" r:id="rId182"/>
+    <hyperlink ref="O43" r:id="rId183"/>
+    <hyperlink ref="O42" r:id="rId184"/>
+    <hyperlink ref="O41" r:id="rId185"/>
+    <hyperlink ref="O40" r:id="rId186"/>
+    <hyperlink ref="O39" r:id="rId187"/>
+    <hyperlink ref="O38" r:id="rId188"/>
+    <hyperlink ref="O37" r:id="rId189"/>
+    <hyperlink ref="O36" r:id="rId190"/>
+    <hyperlink ref="O35" r:id="rId191"/>
+    <hyperlink ref="O34" r:id="rId192"/>
+    <hyperlink ref="O33" r:id="rId193"/>
+    <hyperlink ref="O32" r:id="rId194"/>
+    <hyperlink ref="O31" r:id="rId195"/>
+    <hyperlink ref="O30" r:id="rId196"/>
+    <hyperlink ref="O29" r:id="rId197"/>
+    <hyperlink ref="O28" r:id="rId198"/>
+    <hyperlink ref="O27" r:id="rId199"/>
+    <hyperlink ref="O26" r:id="rId200"/>
+    <hyperlink ref="O25" r:id="rId201"/>
+    <hyperlink ref="O24" r:id="rId202"/>
+    <hyperlink ref="O23" r:id="rId203"/>
+    <hyperlink ref="O22" r:id="rId204"/>
+    <hyperlink ref="O21" r:id="rId205"/>
+    <hyperlink ref="O20" r:id="rId206"/>
+    <hyperlink ref="O19" r:id="rId207"/>
+    <hyperlink ref="O18" r:id="rId208"/>
+    <hyperlink ref="O17" r:id="rId209"/>
+    <hyperlink ref="O16" r:id="rId210"/>
+    <hyperlink ref="O15" r:id="rId211"/>
+    <hyperlink ref="O14" r:id="rId212"/>
+    <hyperlink ref="O13" r:id="rId213"/>
+    <hyperlink ref="O12" r:id="rId214"/>
+    <hyperlink ref="O11" r:id="rId215"/>
+    <hyperlink ref="O10" r:id="rId216"/>
+    <hyperlink ref="O9" r:id="rId217"/>
+    <hyperlink ref="O8" r:id="rId218"/>
+    <hyperlink ref="O7" r:id="rId219"/>
+    <hyperlink ref="O6" r:id="rId220"/>
+    <hyperlink ref="O5" r:id="rId221"/>
+    <hyperlink ref="O4" r:id="rId222"/>
+    <hyperlink ref="O3" r:id="rId223"/>
+    <hyperlink ref="O2" r:id="rId224"/>
+    <hyperlink ref="O1" r:id="rId225"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="913">
   <si>
     <t>E1631</t>
   </si>
@@ -2586,13 +2587,193 @@
   </si>
   <si>
     <t>Data mining</t>
+  </si>
+  <si>
+    <t>E1731</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/944</t>
+  </si>
+  <si>
+    <t>E1732</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/954</t>
+  </si>
+  <si>
+    <t>E1733</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/937</t>
+  </si>
+  <si>
+    <t>E1734</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/948</t>
+  </si>
+  <si>
+    <t>E1735</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/947</t>
+  </si>
+  <si>
+    <t>E1737</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/951</t>
+  </si>
+  <si>
+    <t>E1738</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/949</t>
+  </si>
+  <si>
+    <t>E1740</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/945</t>
+  </si>
+  <si>
+    <t>E1742</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/946</t>
+  </si>
+  <si>
+    <t>E1743</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/952</t>
+  </si>
+  <si>
+    <t>Click and impersonate</t>
+  </si>
+  <si>
+    <t>E1744</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/943</t>
+  </si>
+  <si>
+    <t>Github metrics integration</t>
+  </si>
+  <si>
+    <t>E1711</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/925</t>
+  </si>
+  <si>
+    <t>E1712</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/922</t>
+  </si>
+  <si>
+    <t>E1713</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/930</t>
+  </si>
+  <si>
+    <t>E1714</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/916</t>
+  </si>
+  <si>
+    <t>E1716</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/923</t>
+  </si>
+  <si>
+    <t>E1718</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/924</t>
+  </si>
+  <si>
+    <t>E1720</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/931</t>
+  </si>
+  <si>
+    <t>E1721</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/921</t>
+  </si>
+  <si>
+    <t>E1722</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/917</t>
+  </si>
+  <si>
+    <t>E1724</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/910</t>
+  </si>
+  <si>
+    <t>E1726</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/912</t>
+  </si>
+  <si>
+    <t>Remove cache field in roles table</t>
+  </si>
+  <si>
+    <t>E1727</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/913</t>
+  </si>
+  <si>
+    <t>Move sign_up_sheet view logic to sign_up_sheet_helper.rb</t>
+  </si>
+  <si>
+    <t>E1728</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/911</t>
+  </si>
+  <si>
+    <t>Move grades view logic to grades_helper.rb</t>
+  </si>
+  <si>
+    <t>E1729</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/915</t>
+  </si>
+  <si>
+    <t>Export scores in detail</t>
+  </si>
+  <si>
+    <t>E1730</t>
+  </si>
+  <si>
+    <t>https://github.com/expertiza/expertiza/pull/920</t>
+  </si>
+  <si>
+    <t>Override review-grader pre-sort</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2630,6 +2811,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2652,7 +2838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2661,6 +2847,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2941,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W287"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287:XFD287"/>
+    <sheetView showRuler="0" topLeftCell="K267" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2950,7 +3137,7 @@
     <col min="2" max="2" width="53.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
@@ -15194,4 +15381,5116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F312"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248:F346"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="76.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
+        <v>282</v>
+      </c>
+      <c r="F1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>361</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>533</v>
+      </c>
+      <c r="F3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>988</v>
+      </c>
+      <c r="F4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>575</v>
+      </c>
+      <c r="F5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1793</v>
+      </c>
+      <c r="F6">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1195</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>220</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>508</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E10" s="1">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>367</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>430</v>
+      </c>
+      <c r="F12">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>351</v>
+      </c>
+      <c r="F13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E14" s="1">
+        <v>185</v>
+      </c>
+      <c r="F14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>151</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F16">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>291</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>821</v>
+      </c>
+      <c r="F18">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>242</v>
+      </c>
+      <c r="F19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>516</v>
+      </c>
+      <c r="F21">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8163</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>211</v>
+      </c>
+      <c r="F23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>362</v>
+      </c>
+      <c r="F24">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>272</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>194</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>276</v>
+      </c>
+      <c r="F28" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>244</v>
+      </c>
+      <c r="F29" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>233</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>151</v>
+      </c>
+      <c r="F31" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>595</v>
+      </c>
+      <c r="F32" s="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>14885</v>
+      </c>
+      <c r="F33" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E34" s="1">
+        <v>67</v>
+      </c>
+      <c r="F34" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E35" s="1">
+        <v>348</v>
+      </c>
+      <c r="F35" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E36" s="1">
+        <v>185</v>
+      </c>
+      <c r="F36" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E37" s="1">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>173</v>
+      </c>
+      <c r="F38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>239</v>
+      </c>
+      <c r="F39" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E40" s="1">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>1759</v>
+      </c>
+      <c r="F41" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>84</v>
+      </c>
+      <c r="F42" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>178</v>
+      </c>
+      <c r="F43" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>66</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>273</v>
+      </c>
+      <c r="F45" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>101</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>90</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>264</v>
+      </c>
+      <c r="F48" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>95</v>
+      </c>
+      <c r="F50" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>606029</v>
+      </c>
+      <c r="F51" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>564</v>
+      </c>
+      <c r="F52" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>104</v>
+      </c>
+      <c r="F53" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>279</v>
+      </c>
+      <c r="F55" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E56" s="1">
+        <v>331</v>
+      </c>
+      <c r="F56" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>331</v>
+      </c>
+      <c r="F57" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <v>1045</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>397956</v>
+      </c>
+      <c r="F59" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>270</v>
+      </c>
+      <c r="F60" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>924</v>
+      </c>
+      <c r="F61" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1">
+        <v>175</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>268</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <v>332</v>
+      </c>
+      <c r="F64" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E65" s="1">
+        <v>455</v>
+      </c>
+      <c r="F65" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <v>269</v>
+      </c>
+      <c r="F66" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E67" s="1">
+        <v>403251</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
+        <v>627</v>
+      </c>
+      <c r="F68" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>2955</v>
+      </c>
+      <c r="F69" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E70" s="1">
+        <v>258</v>
+      </c>
+      <c r="F70" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>346</v>
+      </c>
+      <c r="F71" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <v>741</v>
+      </c>
+      <c r="F72" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>396</v>
+      </c>
+      <c r="F73" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <v>104</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
+        <v>162</v>
+      </c>
+      <c r="F75" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>158</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
+        <v>581</v>
+      </c>
+      <c r="F77" s="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
+        <v>711</v>
+      </c>
+      <c r="F78" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
+        <v>329</v>
+      </c>
+      <c r="F79" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <v>761</v>
+      </c>
+      <c r="F81" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1">
+        <v>573</v>
+      </c>
+      <c r="F83" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <v>85082</v>
+      </c>
+      <c r="F85" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <v>94</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
+        <v>105</v>
+      </c>
+      <c r="F87" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>82</v>
+      </c>
+      <c r="F88" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1">
+        <v>2506</v>
+      </c>
+      <c r="F89" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1">
+        <v>555</v>
+      </c>
+      <c r="F90" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1">
+        <v>678</v>
+      </c>
+      <c r="F91" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E94" s="1">
+        <v>172</v>
+      </c>
+      <c r="F94" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1">
+        <v>240</v>
+      </c>
+      <c r="F95" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>677</v>
+      </c>
+      <c r="F96" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>148</v>
+      </c>
+      <c r="F97" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1">
+        <v>472</v>
+      </c>
+      <c r="F98" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1">
+        <v>145</v>
+      </c>
+      <c r="F99" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
+        <v>710</v>
+      </c>
+      <c r="F100" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>439</v>
+      </c>
+      <c r="F101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E102" s="1">
+        <v>531</v>
+      </c>
+      <c r="F102" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E103" s="1">
+        <v>374</v>
+      </c>
+      <c r="F103" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1">
+        <v>271</v>
+      </c>
+      <c r="F104" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1">
+        <v>318</v>
+      </c>
+      <c r="F105" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1">
+        <v>17</v>
+      </c>
+      <c r="F106" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E107" s="1">
+        <v>144</v>
+      </c>
+      <c r="F107" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1">
+        <v>676</v>
+      </c>
+      <c r="F108" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1183</v>
+      </c>
+      <c r="F109" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1">
+        <v>338</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>317</v>
+      </c>
+      <c r="F111" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1">
+        <v>282098</v>
+      </c>
+      <c r="F112" s="1">
+        <v>20771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1">
+        <v>333</v>
+      </c>
+      <c r="F113" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1">
+        <v>260</v>
+      </c>
+      <c r="F114" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1">
+        <v>33</v>
+      </c>
+      <c r="F115" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1">
+        <v>174</v>
+      </c>
+      <c r="F116" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1">
+        <v>120</v>
+      </c>
+      <c r="F117" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1">
+        <v>259</v>
+      </c>
+      <c r="F118" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E120" s="1">
+        <v>335</v>
+      </c>
+      <c r="F120" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E121" s="1">
+        <v>491</v>
+      </c>
+      <c r="F121" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>838</v>
+      </c>
+      <c r="F122" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E123" s="1">
+        <v>423</v>
+      </c>
+      <c r="F123" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
+        <v>418</v>
+      </c>
+      <c r="F124" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1">
+        <v>571</v>
+      </c>
+      <c r="F125" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1">
+        <v>183</v>
+      </c>
+      <c r="F126" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1">
+        <v>106</v>
+      </c>
+      <c r="F127" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1">
+        <v>79</v>
+      </c>
+      <c r="F128" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1">
+        <v>104</v>
+      </c>
+      <c r="F129" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1">
+        <v>350</v>
+      </c>
+      <c r="F130" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="1">
+        <v>133</v>
+      </c>
+      <c r="F131" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="1">
+        <v>238</v>
+      </c>
+      <c r="F132" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1">
+        <v>329</v>
+      </c>
+      <c r="F133" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1">
+        <v>393</v>
+      </c>
+      <c r="F134" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1">
+        <v>142</v>
+      </c>
+      <c r="F135" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1">
+        <v>222</v>
+      </c>
+      <c r="F136" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1">
+        <v>203</v>
+      </c>
+      <c r="F137" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1">
+        <v>1073</v>
+      </c>
+      <c r="F138" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1">
+        <v>189</v>
+      </c>
+      <c r="F139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1">
+        <v>197</v>
+      </c>
+      <c r="F140" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1">
+        <v>808</v>
+      </c>
+      <c r="F141" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1157</v>
+      </c>
+      <c r="F142" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1">
+        <v>554</v>
+      </c>
+      <c r="F143" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1">
+        <v>2623</v>
+      </c>
+      <c r="F144" s="1">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1">
+        <v>499</v>
+      </c>
+      <c r="F145" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1">
+        <v>2338</v>
+      </c>
+      <c r="F146" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1">
+        <v>478</v>
+      </c>
+      <c r="F147" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="1">
+        <v>51</v>
+      </c>
+      <c r="F148" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1">
+        <v>1477</v>
+      </c>
+      <c r="F149" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1">
+        <v>170</v>
+      </c>
+      <c r="F150" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1">
+        <v>506</v>
+      </c>
+      <c r="F151" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1">
+        <v>846</v>
+      </c>
+      <c r="F152" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1">
+        <v>524</v>
+      </c>
+      <c r="F153" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="1">
+        <v>553</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1114</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1">
+        <v>441</v>
+      </c>
+      <c r="F156" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1">
+        <v>162</v>
+      </c>
+      <c r="F157" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1">
+        <v>89</v>
+      </c>
+      <c r="F158" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1">
+        <v>23130</v>
+      </c>
+      <c r="F159" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1">
+        <v>836</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="1">
+        <v>424</v>
+      </c>
+      <c r="F161" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1">
+        <v>628</v>
+      </c>
+      <c r="F162" s="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1">
+        <v>987</v>
+      </c>
+      <c r="F163" s="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1">
+        <v>1258</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E165" s="1">
+        <v>505</v>
+      </c>
+      <c r="F165" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="1">
+        <v>731</v>
+      </c>
+      <c r="F166" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="1">
+        <v>300</v>
+      </c>
+      <c r="F167" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1">
+        <v>580</v>
+      </c>
+      <c r="F168" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1">
+        <v>59636</v>
+      </c>
+      <c r="F169" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="1">
+        <v>622</v>
+      </c>
+      <c r="F170" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1">
+        <v>1059</v>
+      </c>
+      <c r="F171" s="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="1">
+        <v>202</v>
+      </c>
+      <c r="F172" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1">
+        <v>334</v>
+      </c>
+      <c r="F173" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1">
+        <v>2</v>
+      </c>
+      <c r="F174" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1">
+        <v>324</v>
+      </c>
+      <c r="F175" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1">
+        <v>287</v>
+      </c>
+      <c r="F176" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1">
+        <v>3</v>
+      </c>
+      <c r="F177" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1">
+        <v>653</v>
+      </c>
+      <c r="F178" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1">
+        <v>1162</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1">
+        <v>431</v>
+      </c>
+      <c r="F180" s="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="1">
+        <v>293</v>
+      </c>
+      <c r="F182" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="1">
+        <v>278</v>
+      </c>
+      <c r="F183" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="1">
+        <v>23</v>
+      </c>
+      <c r="F184" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" s="1">
+        <v>194</v>
+      </c>
+      <c r="F185" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1">
+        <v>343</v>
+      </c>
+      <c r="F186" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" s="1">
+        <v>213</v>
+      </c>
+      <c r="F187" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1">
+        <v>630</v>
+      </c>
+      <c r="F188" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1">
+        <v>368</v>
+      </c>
+      <c r="F189" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="1">
+        <v>344</v>
+      </c>
+      <c r="F190" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1">
+        <v>174</v>
+      </c>
+      <c r="F191" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1">
+        <v>130</v>
+      </c>
+      <c r="F192" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1">
+        <v>93</v>
+      </c>
+      <c r="F193" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1">
+        <v>212</v>
+      </c>
+      <c r="F194" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="1">
+        <v>152</v>
+      </c>
+      <c r="F195" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1">
+        <v>778</v>
+      </c>
+      <c r="F196" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" s="1">
+        <v>662</v>
+      </c>
+      <c r="F197" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" s="1">
+        <v>2028</v>
+      </c>
+      <c r="F198" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1">
+        <v>1725</v>
+      </c>
+      <c r="F199" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" s="1">
+        <v>671</v>
+      </c>
+      <c r="F200" s="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1">
+        <v>3412</v>
+      </c>
+      <c r="F203" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1">
+        <v>2719</v>
+      </c>
+      <c r="F204" s="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1">
+        <v>823</v>
+      </c>
+      <c r="F205" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1">
+        <v>3412</v>
+      </c>
+      <c r="F206" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1">
+        <v>176</v>
+      </c>
+      <c r="F208" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1">
+        <v>463</v>
+      </c>
+      <c r="F209" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1">
+        <v>778</v>
+      </c>
+      <c r="F210" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1">
+        <v>657</v>
+      </c>
+      <c r="F211" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1">
+        <v>1254</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1">
+        <v>318</v>
+      </c>
+      <c r="F214" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1">
+        <v>581</v>
+      </c>
+      <c r="F215" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1">
+        <v>192</v>
+      </c>
+      <c r="F216" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1">
+        <v>544</v>
+      </c>
+      <c r="F221" s="1">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1">
+        <v>6286</v>
+      </c>
+      <c r="F223" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="1">
+        <v>964</v>
+      </c>
+      <c r="F224" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1">
+        <v>4393</v>
+      </c>
+      <c r="F225" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="1">
+        <v>31219</v>
+      </c>
+      <c r="F226" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1">
+        <v>468</v>
+      </c>
+      <c r="F227" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E228" s="1">
+        <v>720</v>
+      </c>
+      <c r="F228" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="1">
+        <v>12079</v>
+      </c>
+      <c r="F229" s="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1">
+        <v>1166</v>
+      </c>
+      <c r="F230" s="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F231" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1">
+        <v>1195</v>
+      </c>
+      <c r="F233" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="1">
+        <v>546</v>
+      </c>
+      <c r="F234" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1">
+        <v>7314</v>
+      </c>
+      <c r="F235" s="1">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" s="1">
+        <v>24434</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" s="1">
+        <v>2860</v>
+      </c>
+      <c r="F237" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="1">
+        <v>3389</v>
+      </c>
+      <c r="F238" s="1">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" s="1">
+        <v>154</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1">
+        <v>327</v>
+      </c>
+      <c r="F241" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="1">
+        <v>29</v>
+      </c>
+      <c r="F242" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1">
+        <v>468</v>
+      </c>
+      <c r="F244" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" s="1">
+        <v>135</v>
+      </c>
+      <c r="F245" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1">
+        <v>573</v>
+      </c>
+      <c r="F247" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
+    <hyperlink ref="B19" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="B21" r:id="rId21"/>
+    <hyperlink ref="B22" r:id="rId22"/>
+    <hyperlink ref="B23" r:id="rId23"/>
+    <hyperlink ref="B24" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="B28" r:id="rId28"/>
+    <hyperlink ref="B29" r:id="rId29"/>
+    <hyperlink ref="B30" r:id="rId30"/>
+    <hyperlink ref="B31" r:id="rId31"/>
+    <hyperlink ref="B32" r:id="rId32"/>
+    <hyperlink ref="B33" r:id="rId33"/>
+    <hyperlink ref="B34" r:id="rId34"/>
+    <hyperlink ref="B35" r:id="rId35"/>
+    <hyperlink ref="B36" r:id="rId36"/>
+    <hyperlink ref="B37" r:id="rId37"/>
+    <hyperlink ref="B38" r:id="rId38"/>
+    <hyperlink ref="B39" r:id="rId39"/>
+    <hyperlink ref="B40" r:id="rId40"/>
+    <hyperlink ref="B41" r:id="rId41"/>
+    <hyperlink ref="B42" r:id="rId42"/>
+    <hyperlink ref="B43" r:id="rId43"/>
+    <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="B45" r:id="rId45"/>
+    <hyperlink ref="B46" r:id="rId46"/>
+    <hyperlink ref="B47" r:id="rId47"/>
+    <hyperlink ref="B48" r:id="rId48"/>
+    <hyperlink ref="B49" r:id="rId49"/>
+    <hyperlink ref="B50" r:id="rId50"/>
+    <hyperlink ref="B51" r:id="rId51"/>
+    <hyperlink ref="B52" r:id="rId52"/>
+    <hyperlink ref="B53" r:id="rId53"/>
+    <hyperlink ref="B54" r:id="rId54"/>
+    <hyperlink ref="B55" r:id="rId55"/>
+    <hyperlink ref="B56" r:id="rId56"/>
+    <hyperlink ref="B57" r:id="rId57"/>
+    <hyperlink ref="B58" r:id="rId58"/>
+    <hyperlink ref="B59" r:id="rId59"/>
+    <hyperlink ref="B60" r:id="rId60"/>
+    <hyperlink ref="B61" r:id="rId61"/>
+    <hyperlink ref="B62" r:id="rId62"/>
+    <hyperlink ref="B63" r:id="rId63"/>
+    <hyperlink ref="B64" r:id="rId64"/>
+    <hyperlink ref="B65" r:id="rId65"/>
+    <hyperlink ref="B66" r:id="rId66"/>
+    <hyperlink ref="B67" r:id="rId67"/>
+    <hyperlink ref="B68" r:id="rId68"/>
+    <hyperlink ref="B69" r:id="rId69"/>
+    <hyperlink ref="B70" r:id="rId70"/>
+    <hyperlink ref="B71" r:id="rId71"/>
+    <hyperlink ref="B72" r:id="rId72"/>
+    <hyperlink ref="B73" r:id="rId73"/>
+    <hyperlink ref="B74" r:id="rId74"/>
+    <hyperlink ref="B75" r:id="rId75"/>
+    <hyperlink ref="B76" r:id="rId76"/>
+    <hyperlink ref="B77" r:id="rId77"/>
+    <hyperlink ref="B78" r:id="rId78"/>
+    <hyperlink ref="B79" r:id="rId79"/>
+    <hyperlink ref="B80" r:id="rId80"/>
+    <hyperlink ref="B81" r:id="rId81"/>
+    <hyperlink ref="B82" r:id="rId82"/>
+    <hyperlink ref="B83" r:id="rId83"/>
+    <hyperlink ref="B84" r:id="rId84"/>
+    <hyperlink ref="B85" r:id="rId85"/>
+    <hyperlink ref="B86" r:id="rId86"/>
+    <hyperlink ref="B87" r:id="rId87"/>
+    <hyperlink ref="B88" r:id="rId88"/>
+    <hyperlink ref="B89" r:id="rId89"/>
+    <hyperlink ref="B90" r:id="rId90"/>
+    <hyperlink ref="B91" r:id="rId91"/>
+    <hyperlink ref="B92" r:id="rId92"/>
+    <hyperlink ref="B93" r:id="rId93"/>
+    <hyperlink ref="B94" r:id="rId94"/>
+    <hyperlink ref="B95" r:id="rId95"/>
+    <hyperlink ref="B96" r:id="rId96"/>
+    <hyperlink ref="B97" r:id="rId97"/>
+    <hyperlink ref="B98" r:id="rId98"/>
+    <hyperlink ref="B99" r:id="rId99"/>
+    <hyperlink ref="B100" r:id="rId100"/>
+    <hyperlink ref="B101" r:id="rId101"/>
+    <hyperlink ref="B102" r:id="rId102"/>
+    <hyperlink ref="B103" r:id="rId103"/>
+    <hyperlink ref="B104" r:id="rId104"/>
+    <hyperlink ref="B105" r:id="rId105"/>
+    <hyperlink ref="B106" r:id="rId106"/>
+    <hyperlink ref="B107" r:id="rId107"/>
+    <hyperlink ref="B108" r:id="rId108"/>
+    <hyperlink ref="B109" r:id="rId109"/>
+    <hyperlink ref="B110" r:id="rId110"/>
+    <hyperlink ref="B111" r:id="rId111"/>
+    <hyperlink ref="B112" r:id="rId112"/>
+    <hyperlink ref="B113" r:id="rId113"/>
+    <hyperlink ref="B114" r:id="rId114"/>
+    <hyperlink ref="B115" r:id="rId115"/>
+    <hyperlink ref="B116" r:id="rId116"/>
+    <hyperlink ref="B117" r:id="rId117"/>
+    <hyperlink ref="B118" r:id="rId118"/>
+    <hyperlink ref="B119" r:id="rId119"/>
+    <hyperlink ref="B120" r:id="rId120"/>
+    <hyperlink ref="B121" r:id="rId121"/>
+    <hyperlink ref="B122" r:id="rId122"/>
+    <hyperlink ref="B123" r:id="rId123"/>
+    <hyperlink ref="B124" r:id="rId124"/>
+    <hyperlink ref="B125" r:id="rId125"/>
+    <hyperlink ref="B126" r:id="rId126"/>
+    <hyperlink ref="B127" r:id="rId127"/>
+    <hyperlink ref="B128" r:id="rId128"/>
+    <hyperlink ref="B129" r:id="rId129"/>
+    <hyperlink ref="B130" r:id="rId130"/>
+    <hyperlink ref="B131" r:id="rId131"/>
+    <hyperlink ref="B132" r:id="rId132"/>
+    <hyperlink ref="B133" r:id="rId133"/>
+    <hyperlink ref="B134" r:id="rId134"/>
+    <hyperlink ref="B135" r:id="rId135"/>
+    <hyperlink ref="B136" r:id="rId136"/>
+    <hyperlink ref="B137" r:id="rId137"/>
+    <hyperlink ref="B138" r:id="rId138"/>
+    <hyperlink ref="B139" r:id="rId139"/>
+    <hyperlink ref="B140" r:id="rId140"/>
+    <hyperlink ref="B141" r:id="rId141"/>
+    <hyperlink ref="B142" r:id="rId142"/>
+    <hyperlink ref="B143" r:id="rId143"/>
+    <hyperlink ref="B144" r:id="rId144"/>
+    <hyperlink ref="B145" r:id="rId145"/>
+    <hyperlink ref="B146" r:id="rId146"/>
+    <hyperlink ref="B147" r:id="rId147"/>
+    <hyperlink ref="B148" r:id="rId148"/>
+    <hyperlink ref="B149" r:id="rId149"/>
+    <hyperlink ref="B150" r:id="rId150"/>
+    <hyperlink ref="B151" r:id="rId151"/>
+    <hyperlink ref="B152" r:id="rId152"/>
+    <hyperlink ref="B153" r:id="rId153"/>
+    <hyperlink ref="B154" r:id="rId154"/>
+    <hyperlink ref="B155" r:id="rId155"/>
+    <hyperlink ref="B156" r:id="rId156"/>
+    <hyperlink ref="B157" r:id="rId157"/>
+    <hyperlink ref="B158" r:id="rId158"/>
+    <hyperlink ref="B159" r:id="rId159"/>
+    <hyperlink ref="B160" r:id="rId160"/>
+    <hyperlink ref="B161" r:id="rId161"/>
+    <hyperlink ref="B162" r:id="rId162"/>
+    <hyperlink ref="B163" r:id="rId163"/>
+    <hyperlink ref="B164" r:id="rId164"/>
+    <hyperlink ref="B165" r:id="rId165"/>
+    <hyperlink ref="B166" r:id="rId166"/>
+    <hyperlink ref="B167" r:id="rId167"/>
+    <hyperlink ref="B168" r:id="rId168"/>
+    <hyperlink ref="B169" r:id="rId169"/>
+    <hyperlink ref="B170" r:id="rId170"/>
+    <hyperlink ref="B171" r:id="rId171"/>
+    <hyperlink ref="B172" r:id="rId172"/>
+    <hyperlink ref="B173" r:id="rId173"/>
+    <hyperlink ref="B174" r:id="rId174"/>
+    <hyperlink ref="B175" r:id="rId175"/>
+    <hyperlink ref="B176" r:id="rId176"/>
+    <hyperlink ref="B177" r:id="rId177"/>
+    <hyperlink ref="B178" r:id="rId178"/>
+    <hyperlink ref="B179" r:id="rId179"/>
+    <hyperlink ref="B180" r:id="rId180"/>
+    <hyperlink ref="B181" r:id="rId181"/>
+    <hyperlink ref="B182" r:id="rId182"/>
+    <hyperlink ref="B183" r:id="rId183"/>
+    <hyperlink ref="B184" r:id="rId184"/>
+    <hyperlink ref="B185" r:id="rId185"/>
+    <hyperlink ref="B186" r:id="rId186"/>
+    <hyperlink ref="B187" r:id="rId187"/>
+    <hyperlink ref="B188" r:id="rId188"/>
+    <hyperlink ref="B189" r:id="rId189"/>
+    <hyperlink ref="B190" r:id="rId190"/>
+    <hyperlink ref="B191" r:id="rId191"/>
+    <hyperlink ref="B192" r:id="rId192"/>
+    <hyperlink ref="B193" r:id="rId193"/>
+    <hyperlink ref="B194" r:id="rId194"/>
+    <hyperlink ref="B195" r:id="rId195"/>
+    <hyperlink ref="B196" r:id="rId196"/>
+    <hyperlink ref="B197" r:id="rId197"/>
+    <hyperlink ref="B198" r:id="rId198"/>
+    <hyperlink ref="B199" r:id="rId199"/>
+    <hyperlink ref="B200" r:id="rId200"/>
+    <hyperlink ref="B203" r:id="rId201"/>
+    <hyperlink ref="B204" r:id="rId202"/>
+    <hyperlink ref="B205" r:id="rId203"/>
+    <hyperlink ref="B206" r:id="rId204"/>
+    <hyperlink ref="B208" r:id="rId205"/>
+    <hyperlink ref="B209" r:id="rId206"/>
+    <hyperlink ref="B210" r:id="rId207"/>
+    <hyperlink ref="B211" r:id="rId208"/>
+    <hyperlink ref="B213" r:id="rId209"/>
+    <hyperlink ref="B214" r:id="rId210"/>
+    <hyperlink ref="B215" r:id="rId211"/>
+    <hyperlink ref="B216" r:id="rId212"/>
+    <hyperlink ref="B221" r:id="rId213"/>
+    <hyperlink ref="B223" r:id="rId214"/>
+    <hyperlink ref="B224" r:id="rId215"/>
+    <hyperlink ref="B225" r:id="rId216"/>
+    <hyperlink ref="B226" r:id="rId217"/>
+    <hyperlink ref="B227" r:id="rId218"/>
+    <hyperlink ref="B228" r:id="rId219"/>
+    <hyperlink ref="B229" r:id="rId220"/>
+    <hyperlink ref="B230" r:id="rId221"/>
+    <hyperlink ref="B231" r:id="rId222"/>
+    <hyperlink ref="B232" r:id="rId223"/>
+    <hyperlink ref="B233" r:id="rId224"/>
+    <hyperlink ref="B234" r:id="rId225"/>
+    <hyperlink ref="B235" r:id="rId226"/>
+    <hyperlink ref="B236" r:id="rId227"/>
+    <hyperlink ref="B237" r:id="rId228"/>
+    <hyperlink ref="B238" r:id="rId229"/>
+    <hyperlink ref="B240" r:id="rId230"/>
+    <hyperlink ref="B241" r:id="rId231"/>
+    <hyperlink ref="B242" r:id="rId232"/>
+    <hyperlink ref="B244" r:id="rId233"/>
+    <hyperlink ref="B245" r:id="rId234"/>
+    <hyperlink ref="B246" r:id="rId235"/>
+    <hyperlink ref="B247" r:id="rId236"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>